--- a/biology/Médecine/Hôpital_de_Purpan/Hôpital_de_Purpan.xlsx
+++ b/biology/Médecine/Hôpital_de_Purpan/Hôpital_de_Purpan.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_de_Purpan</t>
+          <t>Hôpital_de_Purpan</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L’hôpital de Purpan est un établissement public de santé situé en France à Toulouse Haute-Garonne quartier de Purpan. Il fait partie du centre hospitalier universitaire de Toulouse.
-Le site de Purpan regroupe plusieurs hôpitaux : Purpan, hôpital Pierre-Paul Riquet[1], Hôpital des Enfants[2], Hôpital Paule de Viguier[3], Nouvel Hôpital de Psychiatrie[4], Garonne / Villa Ancely[5]- et Casselardit (Casselardit - Junod[6],[7]).
+Le site de Purpan regroupe plusieurs hôpitaux : Purpan, hôpital Pierre-Paul Riquet, Hôpital des Enfants, Hôpital Paule de Viguier, Nouvel Hôpital de Psychiatrie, Garonne / Villa Ancely- et Casselardit (Casselardit - Junod,).
 </t>
         </is>
       </c>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_de_Purpan</t>
+          <t>Hôpital_de_Purpan</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,15 +525,17 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est pour remplacer l’Hôtel-Dieu Saint-Jacques jugé trop petit et vétuste que fut décidée la création d'un nouvel hôpital suburbain en 1905 et ce n'est que le 25 septembre 1911 que fut posée la première pierre en présence de Jean Cruppi. Plusieurs pavillons sont construits, puis réquisitionnés pour le service de santé pendant la Première Guerre mondiale. 
 			L'ancienne école de médecine du Jardin des Plantes (vers 1850).
 			La Faculté de Médecine de Toulouse en 1929 (aux allées Jules Guesde).
-À la sortie de la guerre, les travaux reprirent et l'inauguration officielle eut lieu pendant la Seconde Guerre mondiale alors qu'il était réquisitionné par les autorités militaires françaises le 17 mars 1940[8].
-En 2009, débute la construction en interne de l’hôpital Pierre-Paul Riquet[9],[10], qui a ouvert ses portes le 7 avril 2014[11]. 
-Deux bâtiments compléteront cet ensemble : un bâtiment de psychiatrie qui a ouvert en fin d'année 2014 et l'ouverture d'un bâtiment des Urgences Réanimation Médecines ouvert en février 2015[12],[13].
-Ce nouvel hôpital Pierre-Paul Riquet a été l’un des plus importants chantiers hospitaliers en France de ces dernières années : il totalise une superficie de 85 000 m2 et dispose d’une capacité de 600 lits et places[1].
+À la sortie de la guerre, les travaux reprirent et l'inauguration officielle eut lieu pendant la Seconde Guerre mondiale alors qu'il était réquisitionné par les autorités militaires françaises le 17 mars 1940.
+En 2009, débute la construction en interne de l’hôpital Pierre-Paul Riquet qui a ouvert ses portes le 7 avril 2014. 
+Deux bâtiments compléteront cet ensemble : un bâtiment de psychiatrie qui a ouvert en fin d'année 2014 et l'ouverture d'un bâtiment des Urgences Réanimation Médecines ouvert en février 2015,.
+Ce nouvel hôpital Pierre-Paul Riquet a été l’un des plus importants chantiers hospitaliers en France de ces dernières années : il totalise une superficie de 85 000 m2 et dispose d’une capacité de 600 lits et places.
 </t>
         </is>
       </c>
@@ -532,7 +546,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_de_Purpan</t>
+          <t>Hôpital_de_Purpan</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -550,7 +564,9 @@
           <t>Accès</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce site est desservi par la ligne T1 et par la ligne T2 du tramway : Station Purpan, les lignes de bus L2, 63 et 45, stations Hôpital Purpan ou Chardonnet, ainsi que la ligne 66.
 </t>
@@ -563,7 +579,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_de_Purpan</t>
+          <t>Hôpital_de_Purpan</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -581,9 +597,11 @@
           <t>Services</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Il regroupe de très nombreux pôles médicaux et chirurgicaux[14] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Il regroupe de très nombreux pôles médicaux et chirurgicaux :
 pôle “anesthésie - réanimation” ;
 pôle “cardiovasculaire et métabolique” ;
 pôle “céphalique” ;
@@ -598,9 +616,43 @@
 pôle “psychiatrie” ;
 pôle “spécialités médicales” ;
 pôle “urologie - néphrologie - dialyse - transplantations - brûlés - chirurgie plastique - explorations fonctionnelles et physiologiques” ;
-pôle “voies respiratoires”.
-Médecine
-Médecine de la reproduction
+pôle “voies respiratoires”.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Hôpital_de_Purpan</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/H%C3%B4pital_de_Purpan</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Services</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Médecine</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Médecine de la reproduction
 Médecine interne
 Médecine interne, pavillon Dieulafoy, 3e étage
 Médecine interne et immunopathologie
@@ -617,9 +669,43 @@
 Hématologie
 Neurologie générale et maladies inflammatoires du système nerveux
 Neurologie vasculaire, pathologie neuro-dégénérative et explorations fonctionnelles du système nerveux
-Neuroradiologie diagnostique et thérapeutique
-Laboratoires
-Bactériologie, virologie, hygiène
+Neuroradiologie diagnostique et thérapeutique</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Hôpital_de_Purpan</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/H%C3%B4pital_de_Purpan</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Services</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Laboratoires</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Bactériologie, virologie, hygiène
 Biochimie
 Biologie cellulaire et cytologie
 Virologie
@@ -629,18 +715,120 @@
 Pharmacocinétique et toxicologie clinique
 Pharmacologie clinique
 Centre antipoison et de toxicovigilance
-Épidémiologie
-Chirurgie
-Chirurgie générale et digestive, unité Garonne
+Épidémiologie</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Hôpital_de_Purpan</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/H%C3%B4pital_de_Purpan</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Services</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Chirurgie</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Chirurgie générale et digestive, unité Garonne
 Chirurgie générale et digestive, unité Pyrénées
 Chirurgie maxillo-faciale et plastique de la face
 Chirurgie orthopédique et traumatologique
-Neurochirurgie
-Anesthésie
-Anatomie et cytologie pathologique
-Anesthésie et réanimation polyvalente (adultes)
-Urgences
-SAMU - SMUR
+Neurochirurgie</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Hôpital_de_Purpan</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/H%C3%B4pital_de_Purpan</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Services</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Anesthésie</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Anatomie et cytologie pathologique
+Anesthésie et réanimation polyvalente (adultes)</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Hôpital_de_Purpan</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/H%C3%B4pital_de_Purpan</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Services</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Urgences</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>SAMU - SMUR
 Urgences - service d'accueil
 Urgences psychiatriques
 Radiologie et imagerie médicale</t>
